--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -470,7 +470,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>

--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,11 +29,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Institutional affiliation</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +116,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>affiliation</t>
   </si>
@@ -468,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -477,28 +497,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,11 +29,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Institutional affiliation</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +116,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>affiliation</t>
   </si>
@@ -468,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -477,28 +497,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -111,12 +111,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is this individual a contact for DOI purposes?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>version</t>
   </si>
@@ -140,6 +153,9 @@
   </si>
   <si>
     <t>orcid_id</t>
+  </si>
+  <si>
+    <t>is_contact</t>
   </si>
 </sst>
 </file>
@@ -488,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -497,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,11 +535,17 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="H2:H1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,11 +29,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Institutional affiliation</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,6 +108,19 @@
             <family val="2"/>
           </rPr>
           <t>ORCID ID of contributor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is this individual a contact for DOI purposes?</t>
         </r>
       </text>
     </comment>
@@ -102,7 +129,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>affiliation</t>
   </si>
@@ -120,6 +153,9 @@
   </si>
   <si>
     <t>orcid_id</t>
+  </si>
+  <si>
+    <t>is_contact</t>
   </si>
 </sst>
 </file>
@@ -468,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -477,28 +513,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="H2:H1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/contributors/contributors.xlsx
+++ b/docs/contributors/contributors.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="is_contact list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>version</t>
   </si>
@@ -156,6 +157,12 @@
   </si>
   <si>
     <t>is_contact</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -544,8 +551,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="H2:H1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="H2:H1048576">
+      <formula1>'is_contact list'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,4 +576,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>